--- a/va_facility_data_2025-02-20/Thomas H. Corey VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Thomas%20H.%20Corey%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Thomas H. Corey VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Thomas%20H.%20Corey%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R583dc5bc9c1747abbbb2563015129b22"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rbd341871d4e24fc7a7ff8aec72ddc35a"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rb8dd2eca882d4fc0aa8fcc3dc8d2671e"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R009aff7caa9b440eb530d06466c59eb6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R3f1801aa6d7946899fe1916df8577e48"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rb1f03177a7104327a4f7ae23bbb919bd"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R3420765cfe4441fd8afc3e1eed55119a"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Re84654e4fed64b8fb2cd5e4ccc67272f"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R2254c86ce10040249a9be2a407728d7a"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rc84b31fed8424bd6ad86f253c6026981"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R585cfa1ed67b4c289710658c7881dc44"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R61bebd1b5bf74f3ea3ef6a1a4009281f"/>
   </x:sheets>
 </x:workbook>
 </file>
